--- a/journal-evaluation/diff-ec-system.xlsx
+++ b/journal-evaluation/diff-ec-system.xlsx
@@ -22,18 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RS(4,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(6,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(8,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CASO-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +39,58 @@
   </si>
   <si>
     <t>CASO-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASO-AVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO-AVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(4,2,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(6,2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(8,2,4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,52 +121,12 @@
     <t>wdev_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>BSO-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(4,2,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(6,2,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(8,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASO-AVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO-AVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +195,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -196,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,94 +518,172 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="0">AVERAGE(B5:F5)</f>
+        <v>2.5020000000000002</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N9" si="1">AVERAGE(G5:K5)</f>
+        <v>2.7199999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2.23</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="P6">
+        <f>N6/M6</f>
+        <v>0.94080717488789234</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
         <v>2.15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2.15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>2.12</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>2.38</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>2.59</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>2.1280000000000001</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(G7:K7)</f>
+        <f t="shared" si="1"/>
         <v>2.492</v>
       </c>
       <c r="P7">
@@ -605,7 +697,45 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.5779999999999998</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
       </c>
       <c r="R8">
         <f>AVERAGE(P10,P19,P29,P39,P50,P59,P68,P77)</f>
@@ -614,141 +744,259 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.3280000000000003</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>2.1740000000000004</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P68" si="2">N9/M9</f>
+        <v>0.93384879725085912</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>2.21</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2.17</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2.21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>2.65</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M8:M10" si="0">AVERAGE(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>2.1980000000000004</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N8:N10" si="1">AVERAGE(G10:K10)</f>
+        <f t="shared" ref="N9:N10" si="3">AVERAGE(G10:K10)</f>
         <v>2.4940000000000002</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P8:P71" si="2">N10/M10</f>
+        <f t="shared" si="2"/>
         <v>1.1346678798908096</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>477.36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>473.49</v>
+      </c>
+      <c r="D14" s="2">
+        <v>478.58</v>
+      </c>
+      <c r="E14" s="2">
+        <v>473.08</v>
+      </c>
+      <c r="F14" s="2">
+        <v>478.39</v>
+      </c>
+      <c r="G14" s="4">
+        <v>585.75</v>
+      </c>
+      <c r="H14" s="4">
+        <v>627.38</v>
+      </c>
+      <c r="I14" s="4">
+        <v>625.55999999999995</v>
+      </c>
+      <c r="J14" s="2">
+        <v>625.53</v>
+      </c>
+      <c r="K14" s="2">
+        <v>625.69000000000005</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M18" si="4">AVERAGE(B14:F14)</f>
+        <v>476.18</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N18" si="5">AVERAGE(G14:K14)</f>
+        <v>617.98200000000008</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>397.71</v>
+      </c>
+      <c r="C15" s="2">
+        <v>409.13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>409.75</v>
+      </c>
+      <c r="E15" s="2">
+        <v>408.73</v>
+      </c>
+      <c r="F15" s="2">
+        <v>411.47</v>
+      </c>
+      <c r="G15" s="2">
+        <v>604.89</v>
+      </c>
+      <c r="H15" s="2">
+        <v>606.64</v>
+      </c>
+      <c r="I15" s="2">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <v>610.08000000000004</v>
+      </c>
+      <c r="K15" s="2">
+        <v>610.05999999999995</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>407.358</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>607.89400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>379.13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>379.26</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>378.29</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>379.13</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>411.9</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>546.24</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>547.30999999999995</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>546.11</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>547.12</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>545.4</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(B16:F16)</f>
+        <f t="shared" si="4"/>
         <v>385.54200000000003</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(G16:K16)</f>
+        <f t="shared" si="5"/>
         <v>546.43599999999992</v>
       </c>
       <c r="P16">
@@ -758,46 +1006,122 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>500.38</v>
+      </c>
+      <c r="C17" s="2">
+        <v>493.7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>494.58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>495.23</v>
+      </c>
+      <c r="F17" s="2">
+        <v>495.2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>732.36</v>
+      </c>
+      <c r="H17" s="4">
+        <v>733.77</v>
+      </c>
+      <c r="I17" s="2">
+        <v>731.28</v>
+      </c>
+      <c r="J17" s="2">
+        <v>730.81</v>
+      </c>
+      <c r="K17" s="2">
+        <v>732.58</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>495.81799999999993</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>732.16</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>427.38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>428.06</v>
+      </c>
+      <c r="D18" s="2">
+        <v>429.52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>431.26</v>
+      </c>
+      <c r="F18" s="2">
+        <v>431.12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>669.14</v>
+      </c>
+      <c r="H18" s="2">
+        <v>674.11</v>
+      </c>
+      <c r="I18" s="4">
+        <v>735.45</v>
+      </c>
+      <c r="J18" s="2">
+        <v>675.05</v>
+      </c>
+      <c r="K18" s="2">
+        <v>678.95</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>429.46800000000002</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>686.54</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>396.97</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>400.27</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>398.85</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>431.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>399.64</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>739.17</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>773.08</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>742.72</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>743.7</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>745.25</v>
       </c>
       <c r="M19">
@@ -815,89 +1139,169 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.43</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.88</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M28" si="6">AVERAGE(B24:F24)</f>
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N28" si="7">AVERAGE(G24:K24)</f>
+        <v>3.8419999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>3.3660000000000005</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0.98941798941798953</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
         <v>3.42</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>3.32</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>3.16</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>3.91</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>3.51</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>2.99</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>3.04</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>2.91</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>2.96</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>3.06</v>
       </c>
       <c r="M26">
-        <f>AVERAGE(B26:F26)</f>
+        <f t="shared" si="6"/>
         <v>3.464</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(G26:K26)</f>
+        <f t="shared" si="7"/>
         <v>2.9920000000000004</v>
       </c>
       <c r="P26">
@@ -907,46 +1311,126 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>3.72</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>4.0419999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>1.0120689655172415</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
         <v>3.29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>3.41</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>3.31</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>3.42</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>3.38</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>2.88</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>3.32</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>3.13</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>3.19</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>3.16</v>
       </c>
       <c r="M29">
@@ -964,89 +1448,169 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="C34" s="2">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="D34" s="2">
+        <v>70.28</v>
+      </c>
+      <c r="E34" s="2">
+        <v>71.98</v>
+      </c>
+      <c r="F34" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="G34" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H34" s="4">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="I34" s="4">
+        <v>77.98</v>
+      </c>
+      <c r="J34" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="K34" s="2">
+        <v>66.25</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34:M38" si="8">AVERAGE(B34:F34)</f>
+        <v>71.012</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N38" si="9">AVERAGE(G34:K34)</f>
+        <v>72.86</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="2">
+        <v>56.14</v>
+      </c>
+      <c r="C35" s="2">
+        <v>56.42</v>
+      </c>
+      <c r="D35" s="2">
+        <v>56.34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>57.71</v>
+      </c>
+      <c r="F35" s="2">
+        <v>56.96</v>
+      </c>
+      <c r="G35" s="2">
+        <v>56.15</v>
+      </c>
+      <c r="H35" s="2">
+        <v>56.74</v>
+      </c>
+      <c r="I35" s="2">
+        <v>55.59</v>
+      </c>
+      <c r="J35" s="2">
+        <v>55.09</v>
+      </c>
+      <c r="K35" s="2">
+        <v>55.79</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="8"/>
+        <v>56.713999999999999</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>55.872</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0.9851535775998872</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2">
         <v>50.81</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>50.86</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>51.42</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>50.88</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>51.38</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>52.78</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>51.59</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>49.85</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>50.59</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>51.34</v>
       </c>
       <c r="M36">
-        <f>AVERAGE(B36:F36)</f>
+        <f t="shared" si="8"/>
         <v>51.07</v>
       </c>
       <c r="N36">
-        <f>AVERAGE(G36:K36)</f>
+        <f t="shared" si="9"/>
         <v>51.23</v>
       </c>
       <c r="P36">
@@ -1056,46 +1620,126 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>70.55</v>
+      </c>
+      <c r="C37" s="2">
+        <v>68.62</v>
+      </c>
+      <c r="D37" s="2">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="E37" s="2">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="F37" s="2">
+        <v>69.41</v>
+      </c>
+      <c r="G37" s="4">
+        <v>81.73</v>
+      </c>
+      <c r="H37" s="4">
+        <v>81.14</v>
+      </c>
+      <c r="I37" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="K37" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="8"/>
+        <v>69.578000000000003</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>74.426000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>54.28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>54.36</v>
+      </c>
+      <c r="D38" s="2">
+        <v>54.96</v>
+      </c>
+      <c r="E38" s="2">
+        <v>56.39</v>
+      </c>
+      <c r="F38" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>58.01</v>
+      </c>
+      <c r="H38" s="2">
+        <v>58.46</v>
+      </c>
+      <c r="I38" s="2">
+        <v>57.78</v>
+      </c>
+      <c r="J38" s="2">
+        <v>57.11</v>
+      </c>
+      <c r="K38" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>54.878</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>57.951999999999998</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>1.0560151609023651</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2">
         <v>48.86</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>48.5</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>49.79</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>48.77</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>48.51</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>51.42</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>50.72</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>50.61</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>52.76</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>52.6</v>
       </c>
       <c r="M39">
@@ -1113,89 +1757,165 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J44" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>67.95</v>
+      </c>
+      <c r="C45" s="2">
+        <v>68.75</v>
+      </c>
+      <c r="D45" s="2">
+        <v>68.47</v>
+      </c>
+      <c r="E45" s="2">
+        <v>67.84</v>
+      </c>
+      <c r="F45" s="2">
+        <v>68.69</v>
+      </c>
+      <c r="G45" s="2">
+        <v>74.81</v>
+      </c>
+      <c r="H45" s="4">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="I45" s="4">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="J45" s="2">
+        <v>74.88</v>
+      </c>
+      <c r="K45" s="2">
+        <v>74.69</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:M49" si="10">AVERAGE(B45:F45)</f>
+        <v>68.34</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N49" si="11">AVERAGE(G45:K45)</f>
+        <v>75.319999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B46" s="2">
+        <v>56.22</v>
+      </c>
+      <c r="C46" s="2">
+        <v>57.03</v>
+      </c>
+      <c r="D46" s="2">
+        <v>55.97</v>
+      </c>
+      <c r="E46" s="2">
+        <v>57.69</v>
+      </c>
+      <c r="F46" s="2">
+        <v>56.22</v>
+      </c>
+      <c r="G46" s="2">
+        <v>62.34</v>
+      </c>
+      <c r="H46" s="2">
+        <v>63.04</v>
+      </c>
+      <c r="I46" s="2">
+        <v>63.03</v>
+      </c>
+      <c r="J46" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>63.83</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>56.625999999999998</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="11"/>
+        <v>63.007999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2">
         <v>50.02</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>51.22</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>51.47</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>50.85</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>50.22</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>55.43</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>54.47</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>54.14</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>56.19</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>54.28</v>
       </c>
       <c r="M47">
-        <f>AVERAGE(B47:F47)</f>
+        <f t="shared" si="10"/>
         <v>50.756</v>
       </c>
       <c r="N47">
-        <f>AVERAGE(G47:K47)</f>
+        <f t="shared" si="11"/>
         <v>54.902000000000001</v>
       </c>
       <c r="P47">
@@ -1205,46 +1925,122 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="2">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="C48" s="2">
+        <v>74.39</v>
+      </c>
+      <c r="D48" s="2">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="E48" s="2">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="F48" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="G48" s="4">
+        <v>79.44</v>
+      </c>
+      <c r="H48" s="4">
+        <v>80.45</v>
+      </c>
+      <c r="I48" s="2">
+        <v>77.62</v>
+      </c>
+      <c r="J48" s="2">
+        <v>78.52</v>
+      </c>
+      <c r="K48" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>72.988</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="11"/>
+        <v>78.725999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B49" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>60.58</v>
+      </c>
+      <c r="D49" s="2">
+        <v>60.28</v>
+      </c>
+      <c r="E49" s="2">
+        <v>61.88</v>
+      </c>
+      <c r="F49" s="2">
+        <v>62.44</v>
+      </c>
+      <c r="G49" s="2">
+        <v>67.819999999999993</v>
+      </c>
+      <c r="H49" s="2">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="I49" s="2">
+        <v>68.14</v>
+      </c>
+      <c r="J49" s="2">
+        <v>66.06</v>
+      </c>
+      <c r="K49" s="2">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>61.335999999999999</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>67.015999999999991</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2">
         <v>53.82</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>54.38</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>53.98</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>53.78</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>55.02</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>58.88</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>58.19</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>59.31</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>59.15</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>58.34</v>
       </c>
       <c r="M50">
@@ -1256,95 +2052,171 @@
         <v>58.774000000000001</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f>N50/M50</f>
         <v>1.0844711786847736</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B54" s="2">
+        <v>148.79</v>
+      </c>
+      <c r="C54" s="2">
+        <v>149.75</v>
+      </c>
+      <c r="D54" s="2">
+        <v>150.03</v>
+      </c>
+      <c r="E54" s="2">
+        <v>150.51</v>
+      </c>
+      <c r="F54" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="G54" s="2">
+        <v>165.72</v>
+      </c>
+      <c r="H54" s="2">
+        <v>166.39</v>
+      </c>
+      <c r="I54" s="2">
+        <v>165.65</v>
+      </c>
+      <c r="J54" s="2">
+        <v>166.09</v>
+      </c>
+      <c r="K54" s="2">
+        <v>167.66</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:M58" si="12">AVERAGE(B54:F54)</f>
+        <v>149.79599999999999</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:N58" si="13">AVERAGE(G54:K54)</f>
+        <v>166.30199999999999</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B55" s="2">
+        <v>121.31</v>
+      </c>
+      <c r="C55" s="2">
+        <v>122.32</v>
+      </c>
+      <c r="D55" s="2">
+        <v>122.92</v>
+      </c>
+      <c r="E55" s="2">
+        <v>123.28</v>
+      </c>
+      <c r="F55" s="2">
+        <v>123.16</v>
+      </c>
+      <c r="G55" s="2">
+        <v>137.15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>136.84</v>
+      </c>
+      <c r="I55" s="2">
+        <v>137.66</v>
+      </c>
+      <c r="J55" s="2">
+        <v>138.07</v>
+      </c>
+      <c r="K55" s="2">
+        <v>137.56</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="12"/>
+        <v>122.598</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="13"/>
+        <v>137.45599999999999</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="B56" s="2">
         <v>105.33</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>105.2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>105.7</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>104.61</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>104.68</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>125.65</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>124.11</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>123.76</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>126.94</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>125.62</v>
       </c>
       <c r="M56">
-        <f>AVERAGE(B56:F56)</f>
+        <f t="shared" si="12"/>
         <v>105.104</v>
       </c>
       <c r="N56">
-        <f>AVERAGE(G56:K56)</f>
+        <f t="shared" si="13"/>
         <v>125.21599999999998</v>
       </c>
       <c r="P56">
@@ -1354,46 +2226,122 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B57" s="2">
+        <v>155.22</v>
+      </c>
+      <c r="C57" s="2">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="D57" s="2">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>152.5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>152.79</v>
+      </c>
+      <c r="G57" s="2">
+        <v>175.36</v>
+      </c>
+      <c r="H57" s="4">
+        <v>234.06</v>
+      </c>
+      <c r="I57" s="2">
+        <v>173.78</v>
+      </c>
+      <c r="J57" s="2">
+        <v>174.46</v>
+      </c>
+      <c r="K57" s="2">
+        <v>174.16</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="12"/>
+        <v>153.12599999999998</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="13"/>
+        <v>186.364</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B58" s="2">
+        <v>124.02</v>
+      </c>
+      <c r="C58" s="2">
+        <v>122.82</v>
+      </c>
+      <c r="D58" s="2">
+        <v>126.25</v>
+      </c>
+      <c r="E58" s="2">
+        <v>123.62</v>
+      </c>
+      <c r="F58" s="2">
+        <v>123.31</v>
+      </c>
+      <c r="G58" s="2">
+        <v>140.51</v>
+      </c>
+      <c r="H58" s="2">
+        <v>140.65</v>
+      </c>
+      <c r="I58" s="2">
+        <v>142.33000000000001</v>
+      </c>
+      <c r="J58" s="2">
+        <v>140.72</v>
+      </c>
+      <c r="K58" s="2">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="12"/>
+        <v>124.00399999999999</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="13"/>
+        <v>141.23200000000003</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="B59" s="2">
         <v>105.02</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>104.72</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>104.93</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>105.18</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>105.47</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>126.14</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>125.96</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>126.16</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>125.11</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="2">
         <v>127.08</v>
       </c>
       <c r="M59">
@@ -1411,89 +2359,165 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J62" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B63" s="2">
+        <v>302.08999999999997</v>
+      </c>
+      <c r="C63" s="2">
+        <v>303.29000000000002</v>
+      </c>
+      <c r="D63" s="2">
+        <v>300.62</v>
+      </c>
+      <c r="E63" s="2">
+        <v>302.19</v>
+      </c>
+      <c r="F63" s="2">
+        <v>302.81</v>
+      </c>
+      <c r="G63" s="2">
+        <v>368.44</v>
+      </c>
+      <c r="H63" s="2">
+        <v>366.45</v>
+      </c>
+      <c r="I63" s="2">
+        <v>367.18</v>
+      </c>
+      <c r="J63" s="2">
+        <v>367.36</v>
+      </c>
+      <c r="K63" s="2">
+        <v>366.92</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:M67" si="14">AVERAGE(B63:F63)</f>
+        <v>302.2</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:N67" si="15">AVERAGE(G63:K63)</f>
+        <v>367.27</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <v>284.12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>286.92</v>
+      </c>
+      <c r="D64" s="2">
+        <v>285.08999999999997</v>
+      </c>
+      <c r="E64" s="2">
+        <v>286.77</v>
+      </c>
+      <c r="F64" s="2">
+        <v>288.72000000000003</v>
+      </c>
+      <c r="G64" s="2">
+        <v>339.4</v>
+      </c>
+      <c r="H64" s="2">
+        <v>337.11</v>
+      </c>
+      <c r="I64" s="2">
+        <v>342.47</v>
+      </c>
+      <c r="J64" s="2">
+        <v>339.36</v>
+      </c>
+      <c r="K64" s="2">
+        <v>341.05</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="14"/>
+        <v>286.32399999999996</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="15"/>
+        <v>339.87800000000004</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
         <v>286.10000000000002</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>286.01</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>288.29000000000002</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>288.3</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>287.02999999999997</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>365.14</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>367.26</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>366.67</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>366.79</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>368.22</v>
       </c>
       <c r="M65">
-        <f>AVERAGE(B65:F65)</f>
+        <f t="shared" si="14"/>
         <v>287.14600000000002</v>
       </c>
       <c r="N65">
-        <f>AVERAGE(G65:K65)</f>
+        <f t="shared" si="15"/>
         <v>366.81599999999997</v>
       </c>
       <c r="P65">
@@ -1503,46 +2527,122 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="C66" s="2">
+        <v>322.37</v>
+      </c>
+      <c r="D66" s="2">
+        <v>322.32</v>
+      </c>
+      <c r="E66" s="2">
+        <v>322.24</v>
+      </c>
+      <c r="F66" s="2">
+        <v>322.7</v>
+      </c>
+      <c r="G66" s="2">
+        <v>398.39</v>
+      </c>
+      <c r="H66" s="2">
+        <v>396.67</v>
+      </c>
+      <c r="I66" s="2">
+        <v>395.83</v>
+      </c>
+      <c r="J66" s="2">
+        <v>396.44</v>
+      </c>
+      <c r="K66" s="2">
+        <v>396.96</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="14"/>
+        <v>322.52000000000004</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="15"/>
+        <v>396.858</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
+        <v>298.27</v>
+      </c>
+      <c r="C67" s="2">
+        <v>301.79000000000002</v>
+      </c>
+      <c r="D67" s="2">
+        <v>297.75</v>
+      </c>
+      <c r="E67" s="2">
+        <v>302.51</v>
+      </c>
+      <c r="F67" s="2">
+        <v>302.91000000000003</v>
+      </c>
+      <c r="G67" s="2">
+        <v>360.68</v>
+      </c>
+      <c r="H67" s="2">
+        <v>359.06</v>
+      </c>
+      <c r="I67" s="2">
+        <v>361.35</v>
+      </c>
+      <c r="J67" s="2">
+        <v>358.85</v>
+      </c>
+      <c r="K67" s="2">
+        <v>359.1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="14"/>
+        <v>300.64600000000002</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="15"/>
+        <v>359.80799999999999</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2">
         <v>299.58999999999997</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>298.51</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>296.86</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>285.39999999999998</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>301.27999999999997</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>383.73</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>386.55</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>384.34</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>368.07</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>384.01</v>
       </c>
       <c r="M68">
@@ -1560,138 +2660,290 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J71" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2382.86</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2388.1799999999998</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2385</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2385.77</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>2962.71</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2965.14</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2965.58</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2967.94</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="M72">
+        <f t="shared" ref="M72:M76" si="16">AVERAGE(B72:F72)</f>
+        <v>2385.4524999999999</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:N76" si="17">AVERAGE(G72:K72)</f>
+        <v>2965.3425000000002</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2086.31</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2087.59</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2087.62</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2093.0300000000002</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2095.38</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2662.17</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2674.52</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2732.54</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2741.6</v>
+      </c>
+      <c r="K73" s="2">
+        <v>2683.03</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="16"/>
+        <v>2089.9859999999999</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="17"/>
+        <v>2698.7719999999999</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ref="P73:P77" si="18">N73/M73</f>
+        <v>1.2912871186696946</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2">
         <v>1897.83</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>1905.38</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>1901.36</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>1939.82</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>1909.18</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>2474.48</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>2483.25</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>2482.12</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>2487.96</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <v>2481.71</v>
       </c>
       <c r="M74">
-        <f>AVERAGE(B74:F74)</f>
+        <f t="shared" si="16"/>
         <v>1910.7139999999999</v>
       </c>
       <c r="N74">
-        <f>AVERAGE(G74:K74)</f>
+        <f t="shared" si="17"/>
         <v>2481.904</v>
       </c>
       <c r="P74">
-        <f t="shared" ref="P72:P77" si="3">N74/M74</f>
+        <f t="shared" si="18"/>
         <v>1.2989406054490624</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2622.38</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2682.74</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2626.14</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2621.12</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>3263.14</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3261.03</v>
+      </c>
+      <c r="I75" s="2">
+        <v>3267.27</v>
+      </c>
+      <c r="J75" s="2">
+        <v>3330.09</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="M75">
+        <f t="shared" si="16"/>
+        <v>2638.0950000000003</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="17"/>
+        <v>3280.3825000000002</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2235.94</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2264.61</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2244.98</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2281.19</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2255.8000000000002</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2854.85</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2920.96</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2861.05</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2923.2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>2866.78</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="16"/>
+        <v>2256.5039999999999</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="17"/>
+        <v>2885.3680000000004</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="18"/>
+        <v>1.278689512626612</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="B77" s="2">
         <v>2050.17</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>2140.5500000000002</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>2063.1799999999998</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>2052.5700000000002</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>2040.51</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>2602.9</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>2596.3000000000002</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>2604.9899999999998</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>2612.84</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <v>2598.65</v>
       </c>
       <c r="M77">
@@ -1703,7 +2955,7 @@
         <v>2603.136</v>
       </c>
       <c r="P77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>1.2579206686395452</v>
       </c>
     </row>

--- a/journal-evaluation/diff-ec-system.xlsx
+++ b/journal-evaluation/diff-ec-system.xlsx
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,7 +516,7 @@
   <dimension ref="A4:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,8 +584,8 @@
       <c r="F5" s="2">
         <v>2.4</v>
       </c>
-      <c r="G5" s="2">
-        <v>2.63</v>
+      <c r="G5" s="4">
+        <v>2.69</v>
       </c>
       <c r="H5" s="4">
         <v>2.86</v>
@@ -582,11 +593,11 @@
       <c r="I5" s="4">
         <v>2.92</v>
       </c>
-      <c r="J5" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.6</v>
+      <c r="J5" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.72</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M10" si="0">AVERAGE(B5:F5)</f>
@@ -594,7 +605,15 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N9" si="1">AVERAGE(G5:K5)</f>
-        <v>2.7199999999999998</v>
+        <v>2.766</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P9" si="2">N5/M5</f>
+        <v>1.105515587529976</v>
+      </c>
+      <c r="Q5">
+        <f>M5/N5</f>
+        <v>0.90455531453362259</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -640,8 +659,12 @@
         <v>2.0979999999999999</v>
       </c>
       <c r="P6">
-        <f>N6/M6</f>
+        <f t="shared" si="2"/>
         <v>0.94080717488789234</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q69" si="3">M6/N6</f>
+        <v>1.0629170638703527</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -687,8 +710,12 @@
         <v>2.492</v>
       </c>
       <c r="P7">
-        <f>N7/M7</f>
+        <f t="shared" si="2"/>
         <v>1.1710526315789473</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0.85393258426966301</v>
       </c>
       <c r="R7">
         <f>AVERAGE(P7,P16,P26,P36,P47,P56,P65,P74)</f>
@@ -723,11 +750,11 @@
       <c r="I8" s="4">
         <v>2.97</v>
       </c>
-      <c r="J8" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.66</v>
+      <c r="J8" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.85</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -735,7 +762,15 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>2.85</v>
+        <v>2.9739999999999998</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>1.1536074476338247</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>0.86684599865501011</v>
       </c>
       <c r="R8">
         <f>AVERAGE(P10,P19,P29,P39,P50,P59,P68,P77)</f>
@@ -785,8 +820,12 @@
         <v>2.1740000000000004</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P68" si="2">N9/M9</f>
+        <f t="shared" si="2"/>
         <v>0.93384879725085912</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>1.0708371665133394</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -828,12 +867,16 @@
         <v>2.1980000000000004</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N9:N10" si="3">AVERAGE(G10:K10)</f>
+        <f t="shared" ref="N10" si="4">AVERAGE(G10:K10)</f>
         <v>2.4940000000000002</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P10:P68" si="5">N10/M10</f>
         <v>1.1346678798908096</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>0.88131515637530078</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -899,19 +942,27 @@
       <c r="I14" s="4">
         <v>625.55999999999995</v>
       </c>
-      <c r="J14" s="2">
-        <v>625.53</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14" s="4">
+        <v>622.57000000000005</v>
+      </c>
+      <c r="K14" s="4">
         <v>625.69000000000005</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M18" si="4">AVERAGE(B14:F14)</f>
+        <f t="shared" ref="M14:M18" si="6">AVERAGE(B14:F14)</f>
         <v>476.18</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N18" si="5">AVERAGE(G14:K14)</f>
-        <v>617.98200000000008</v>
+        <f t="shared" ref="N14:N18" si="7">AVERAGE(G14:K14)</f>
+        <v>617.3900000000001</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1.2965475240455291</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0.77127909425160746</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -949,12 +1000,20 @@
         <v>610.05999999999995</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>407.358</v>
       </c>
       <c r="N15">
+        <f t="shared" si="7"/>
+        <v>607.89400000000001</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="5"/>
-        <v>607.89400000000001</v>
+        <v>1.4922844279478984</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>0.67011353953156305</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -992,19 +1051,23 @@
         <v>545.4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>385.54200000000003</v>
       </c>
       <c r="N16">
+        <f t="shared" si="7"/>
+        <v>546.43599999999992</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="5"/>
-        <v>546.43599999999992</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
         <v>1.4173189950770599</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>0.70555746693116872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1029,25 +1092,33 @@
       <c r="H17" s="4">
         <v>733.77</v>
       </c>
-      <c r="I17" s="2">
-        <v>731.28</v>
-      </c>
-      <c r="J17" s="2">
-        <v>730.81</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="I17" s="4">
+        <v>735.27</v>
+      </c>
+      <c r="J17" s="4">
+        <v>733.53</v>
+      </c>
+      <c r="K17" s="4">
         <v>732.58</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>495.81799999999993</v>
       </c>
       <c r="N17">
+        <f t="shared" si="7"/>
+        <v>733.50200000000007</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="5"/>
-        <v>732.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1.4793775135231075</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>0.67595998374919208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1072,25 +1143,33 @@
       <c r="H18" s="2">
         <v>674.11</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>735.45</v>
       </c>
       <c r="J18" s="2">
-        <v>675.05</v>
+        <v>735.27</v>
       </c>
       <c r="K18" s="2">
         <v>678.95</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>429.46800000000002</v>
       </c>
       <c r="N18">
+        <f t="shared" si="7"/>
+        <v>698.58400000000006</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="5"/>
-        <v>686.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1.626626430840016</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>0.61476930476506764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1133,11 +1212,15 @@
         <v>748.78399999999999</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8468156055306995</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>0.54147257420030348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1200,22 +1283,30 @@
       <c r="I24" s="4">
         <v>4.07</v>
       </c>
-      <c r="J24" s="2">
-        <v>3.38</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3.45</v>
+      <c r="J24" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3.78</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M28" si="6">AVERAGE(B24:F24)</f>
+        <f t="shared" ref="M24:M28" si="8">AVERAGE(B24:F24)</f>
         <v>3.4140000000000001</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N28" si="7">AVERAGE(G24:K24)</f>
-        <v>3.8419999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N24:N28" si="9">AVERAGE(G24:K24)</f>
+        <v>4.0020000000000007</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>1.1722319859402461</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>0.85307346326836575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1250,19 +1341,23 @@
         <v>3.27</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4020000000000001</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3660000000000005</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98941798941798953</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>1.0106951871657752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1297,19 +1392,23 @@
         <v>3.06</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.464</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9920000000000004</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.863741339491917</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>1.1577540106951869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1337,22 +1436,30 @@
       <c r="I27" s="4">
         <v>4.2300000000000004</v>
       </c>
-      <c r="J27" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="K27" s="2">
-        <v>3.55</v>
+      <c r="J27" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="K27" s="4">
+        <v>4.2699999999999996</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.72</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
-        <v>4.0419999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>4.2780000000000005</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1387,19 +1494,23 @@
         <v>3.5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5219999999999998</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0120689655172415</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>0.98807495741056206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1442,11 +1553,15 @@
         <v>3.1359999999999997</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.93277810826888752</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>1.0720663265306123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1509,22 +1624,30 @@
       <c r="I34" s="4">
         <v>77.98</v>
       </c>
-      <c r="J34" s="2">
-        <v>65.8</v>
-      </c>
-      <c r="K34" s="2">
-        <v>66.25</v>
+      <c r="J34" s="4">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="K34" s="4">
+        <v>77.08</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M38" si="8">AVERAGE(B34:F34)</f>
+        <f t="shared" ref="M34:M38" si="10">AVERAGE(B34:F34)</f>
         <v>71.012</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N38" si="9">AVERAGE(G34:K34)</f>
-        <v>72.86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N34:N38" si="11">AVERAGE(G34:K34)</f>
+        <v>77.301999999999992</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>1.0885765786064325</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>0.91863082455822631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1559,19 +1682,23 @@
         <v>55.79</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56.713999999999999</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>55.872</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9851535775998872</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>1.0150701603665522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1606,19 +1733,23 @@
         <v>51.34</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51.07</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.23</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0031329547679655</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0.99687682998243221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1643,25 +1774,33 @@
       <c r="H37" s="4">
         <v>81.14</v>
       </c>
-      <c r="I37" s="2">
-        <v>72.3</v>
-      </c>
-      <c r="J37" s="2">
-        <v>68.260000000000005</v>
+      <c r="I37" s="4">
+        <v>81.72</v>
+      </c>
+      <c r="J37" s="4">
+        <v>80.89</v>
       </c>
       <c r="K37" s="2">
         <v>68.7</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69.578000000000003</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
-        <v>74.426000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>78.835999999999999</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>1.1330593003535601</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.88256634025064695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1696,19 +1835,23 @@
         <v>58.4</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54.878</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>57.951999999999998</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0560151609023651</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.94695610160132526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1751,11 +1894,15 @@
         <v>51.622</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0559669435012069</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.94699934136608432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1818,22 +1965,30 @@
       <c r="I45" s="4">
         <v>76.209999999999994</v>
       </c>
-      <c r="J45" s="2">
-        <v>74.88</v>
-      </c>
-      <c r="K45" s="2">
-        <v>74.69</v>
+      <c r="J45" s="4">
+        <v>76.59</v>
+      </c>
+      <c r="K45" s="4">
+        <v>77.48</v>
       </c>
       <c r="M45">
-        <f t="shared" ref="M45:M49" si="10">AVERAGE(B45:F45)</f>
+        <f t="shared" ref="M45:M49" si="12">AVERAGE(B45:F45)</f>
         <v>68.34</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N49" si="11">AVERAGE(G45:K45)</f>
-        <v>75.319999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N45:N49" si="13">AVERAGE(G45:K45)</f>
+        <v>76.22</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:P49" si="14">N45/M45</f>
+        <v>1.1153058238220661</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>0.89661506166360538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1868,15 +2023,23 @@
         <v>63.83</v>
       </c>
       <c r="M46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>56.625999999999998</v>
       </c>
       <c r="N46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63.007999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P46">
+        <f t="shared" si="14"/>
+        <v>1.1127044114011231</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>0.89871127475876078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1911,19 +2074,23 @@
         <v>54.28</v>
       </c>
       <c r="M47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>50.756</v>
       </c>
       <c r="N47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54.902000000000001</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>1.0816849239498778</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>0.92448362536883899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1948,25 +2115,33 @@
       <c r="H48" s="4">
         <v>80.45</v>
       </c>
-      <c r="I48" s="2">
-        <v>77.62</v>
-      </c>
-      <c r="J48" s="2">
-        <v>78.52</v>
+      <c r="I48" s="4">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="J48" s="4">
+        <v>80.38</v>
       </c>
       <c r="K48" s="2">
         <v>77.599999999999994</v>
       </c>
       <c r="M48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72.988</v>
       </c>
       <c r="N48">
-        <f t="shared" si="11"/>
-        <v>78.725999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>79.594000000000008</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="14"/>
+        <v>1.0905080287170494</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="3"/>
+        <v>0.91700379425584833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2001,15 +2176,23 @@
         <v>66.819999999999993</v>
       </c>
       <c r="M49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>61.335999999999999</v>
       </c>
       <c r="N49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>67.015999999999991</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P49">
+        <f t="shared" si="14"/>
+        <v>1.0926046693622016</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="3"/>
+        <v>0.91524412080697159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2055,8 +2238,12 @@
         <f>N50/M50</f>
         <v>1.0844711786847736</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q50">
+        <f t="shared" si="3"/>
+        <v>0.92210841528567056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -2091,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2110,31 +2297,39 @@
       <c r="F54" s="2">
         <v>149.9</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <v>165.72</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="4">
         <v>166.39</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <v>165.65</v>
       </c>
-      <c r="J54" s="2">
-        <v>166.09</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="J54" s="4">
+        <v>167.27</v>
+      </c>
+      <c r="K54" s="4">
         <v>167.66</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54:M58" si="12">AVERAGE(B54:F54)</f>
+        <f t="shared" ref="M54:M58" si="15">AVERAGE(B54:F54)</f>
         <v>149.79599999999999</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54:N58" si="13">AVERAGE(G54:K54)</f>
-        <v>166.30199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N54:N58" si="16">AVERAGE(G54:K54)</f>
+        <v>166.53799999999998</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="5"/>
+        <v>1.1117653341878286</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="3"/>
+        <v>0.89947039114196159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2169,15 +2364,23 @@
         <v>137.56</v>
       </c>
       <c r="M55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>122.598</v>
       </c>
       <c r="N55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>137.45599999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P55">
+        <f t="shared" si="5"/>
+        <v>1.1211928416450512</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="3"/>
+        <v>0.89190722849493664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2212,19 +2415,23 @@
         <v>125.62</v>
       </c>
       <c r="M56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>105.104</v>
       </c>
       <c r="N56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>125.21599999999998</v>
       </c>
       <c r="P56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1913533262292584</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q56">
+        <f t="shared" si="3"/>
+        <v>0.83938154868387438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2243,31 +2450,39 @@
       <c r="F57" s="2">
         <v>152.79</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <v>175.36</v>
       </c>
       <c r="H57" s="4">
-        <v>234.06</v>
-      </c>
-      <c r="I57" s="2">
-        <v>173.78</v>
-      </c>
-      <c r="J57" s="2">
+        <v>176.99</v>
+      </c>
+      <c r="I57" s="4">
+        <v>176.93</v>
+      </c>
+      <c r="J57" s="4">
         <v>174.46</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="4">
         <v>174.16</v>
       </c>
       <c r="M57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>153.12599999999998</v>
       </c>
       <c r="N57">
-        <f t="shared" si="13"/>
-        <v>186.364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>175.57999999999998</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="5"/>
+        <v>1.1466374097148755</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="3"/>
+        <v>0.8721152750882788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2302,15 +2517,23 @@
         <v>141.94999999999999</v>
       </c>
       <c r="M58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>124.00399999999999</v>
       </c>
       <c r="N58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>141.23200000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P58">
+        <f t="shared" si="5"/>
+        <v>1.1389310022257351</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="3"/>
+        <v>0.87801631358332366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2353,11 +2576,15 @@
         <v>126.09</v>
       </c>
       <c r="P59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2001256377065408</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>0.83324609405979855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2411,31 +2638,39 @@
       <c r="F63" s="2">
         <v>302.81</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>368.44</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="4">
         <v>366.45</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <v>367.18</v>
       </c>
-      <c r="J63" s="2">
-        <v>367.36</v>
-      </c>
-      <c r="K63" s="2">
+      <c r="J63" s="4">
+        <v>366.44</v>
+      </c>
+      <c r="K63" s="4">
         <v>366.92</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63:M67" si="14">AVERAGE(B63:F63)</f>
+        <f t="shared" ref="M63:M67" si="17">AVERAGE(B63:F63)</f>
         <v>302.2</v>
       </c>
       <c r="N63">
-        <f t="shared" ref="N63:N67" si="15">AVERAGE(G63:K63)</f>
-        <v>367.27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N63:N67" si="18">AVERAGE(G63:K63)</f>
+        <v>367.08600000000001</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="5"/>
+        <v>1.2147121111846459</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="3"/>
+        <v>0.8232403306037277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2470,15 +2705,23 @@
         <v>341.05</v>
       </c>
       <c r="M64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>286.32399999999996</v>
       </c>
       <c r="N64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>339.87800000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P64">
+        <f t="shared" si="5"/>
+        <v>1.1870398569452791</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="3"/>
+        <v>0.84243169607918111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2513,19 +2756,23 @@
         <v>368.22</v>
       </c>
       <c r="M65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>287.14600000000002</v>
       </c>
       <c r="N65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>366.81599999999997</v>
       </c>
       <c r="P65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2774546746254518</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q65">
+        <f t="shared" si="3"/>
+        <v>0.78280663875076339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2544,31 +2791,39 @@
       <c r="F66" s="2">
         <v>322.7</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>398.39</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="4">
         <v>396.67</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <v>395.83</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="4">
         <v>396.44</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="4">
         <v>396.96</v>
       </c>
       <c r="M66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>322.52000000000004</v>
       </c>
       <c r="N66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>396.858</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P66">
+        <f t="shared" si="5"/>
+        <v>1.2304911323328784</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="3"/>
+        <v>0.81268362991296639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -2603,15 +2858,23 @@
         <v>359.1</v>
       </c>
       <c r="M67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>300.64600000000002</v>
       </c>
       <c r="N67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>359.80799999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P67">
+        <f t="shared" si="5"/>
+        <v>1.1967829274296016</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>0.83557341693347564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -2654,11 +2917,15 @@
         <v>381.34</v>
       </c>
       <c r="P68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.286884803326044</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>0.77707033093827027</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -2693,7 +2960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2710,29 +2977,39 @@
         <v>2385.77</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="2">
+      <c r="G72" s="4">
         <v>2962.71</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="4">
         <v>2965.14</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="4">
         <v>2965.58</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="4">
         <v>2967.94</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="K72" s="4">
+        <v>2959.89</v>
+      </c>
       <c r="M72">
-        <f t="shared" ref="M72:M76" si="16">AVERAGE(B72:F72)</f>
+        <f t="shared" ref="M72:M76" si="19">AVERAGE(B72:F72)</f>
         <v>2385.4524999999999</v>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:N76" si="17">AVERAGE(G72:K72)</f>
-        <v>2965.3425000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" ref="N72:N76" si="20">AVERAGE(G72:K72)</f>
+        <v>2964.252</v>
+      </c>
+      <c r="P72">
+        <f t="shared" ref="P72:P77" si="21">N72/M72</f>
+        <v>1.2426371935722886</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q70:Q77" si="22">M72/N72</f>
+        <v>0.8047401165622895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2767,19 +3044,23 @@
         <v>2683.03</v>
       </c>
       <c r="M73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2089.9859999999999</v>
       </c>
       <c r="N73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2698.7719999999999</v>
       </c>
       <c r="P73">
-        <f t="shared" ref="P73:P77" si="18">N73/M73</f>
+        <f t="shared" si="21"/>
         <v>1.2912871186696946</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q73">
+        <f t="shared" si="22"/>
+        <v>0.77442110708129475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2814,19 +3095,23 @@
         <v>2481.71</v>
       </c>
       <c r="M74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1910.7139999999999</v>
       </c>
       <c r="N74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2481.904</v>
       </c>
       <c r="P74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2989406054490624</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q74">
+        <f t="shared" si="22"/>
+        <v>0.76985814116903795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2843,29 +3128,39 @@
         <v>2621.12</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="2">
+      <c r="G75" s="4">
         <v>3263.14</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="4">
         <v>3261.03</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="4">
         <v>3267.27</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="4">
         <v>3330.09</v>
       </c>
-      <c r="K75" s="2"/>
+      <c r="K75" s="4">
+        <v>3278.14</v>
+      </c>
       <c r="M75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2638.0950000000003</v>
       </c>
       <c r="N75">
-        <f t="shared" si="17"/>
-        <v>3280.3825000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+        <f t="shared" si="20"/>
+        <v>3279.9340000000002</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="21"/>
+        <v>1.2432963937993136</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="22"/>
+        <v>0.80431344045337505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2900,19 +3195,23 @@
         <v>2866.78</v>
       </c>
       <c r="M76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2256.5039999999999</v>
       </c>
       <c r="N76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2885.3680000000004</v>
       </c>
       <c r="P76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.278689512626612</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q76">
+        <f t="shared" si="22"/>
+        <v>0.78205067776449988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2955,8 +3254,12 @@
         <v>2603.136</v>
       </c>
       <c r="P77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2579206686395452</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="22"/>
+        <v>0.79496269115405405</v>
       </c>
     </row>
   </sheetData>
